--- a/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
+++ b/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="246">
   <si>
     <t>Path</t>
   </si>
@@ -405,6 +405,9 @@
     <t>Lists are used in various ways, and it must be known in what way it is safe to use them.</t>
   </si>
   <si>
+    <t>working</t>
+  </si>
+  <si>
     <t>The processing mode that applies to this list.</t>
   </si>
   <si>
@@ -454,6 +457,14 @@
     <t>Lists often contain subsets of resources rather than an exhaustive list.  The code identifies what type of subset is included.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="81340-2"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -582,6 +593,13 @@
     <t>Important for presentation and rendering.  Lists may be sorted to place more important information first or to group related entries.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;code value="priority"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>What order applies to the items in a list.</t>
   </si>
   <si>
@@ -739,7 +757,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference)
 </t>
   </si>
   <si>
@@ -2281,7 +2299,7 @@
         <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>41</v>
@@ -2299,10 +2317,10 @@
         <v>114</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2335,15 +2353,15 @@
         <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2351,7 +2369,7 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F14" t="s" s="2">
         <v>47</v>
@@ -2369,14 +2387,14 @@
         <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2389,7 +2407,7 @@
         <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>41</v>
@@ -2425,7 +2443,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2440,7 +2458,7 @@
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2448,7 +2466,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2456,7 +2474,7 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>47</v>
@@ -2471,19 +2489,19 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2493,7 +2511,7 @@
         <v>41</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>41</v>
+        <v>141</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>41</v>
@@ -2508,13 +2526,13 @@
         <v>41</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
@@ -2532,7 +2550,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2547,15 +2565,15 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2578,19 +2596,19 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2639,7 +2657,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2654,15 +2672,15 @@
         <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2685,13 +2703,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2742,7 +2760,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2757,15 +2775,15 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2788,19 +2806,19 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -2849,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2864,19 +2882,19 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2895,19 +2913,19 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -2956,7 +2974,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2971,15 +2989,15 @@
         <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2987,13 +3005,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>41</v>
@@ -3002,19 +3020,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3024,7 +3042,7 @@
         <v>41</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>41</v>
+        <v>183</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3042,10 +3060,10 @@
         <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
@@ -3063,7 +3081,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3078,7 +3096,7 @@
         <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3086,7 +3104,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3109,13 +3127,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3166,7 +3184,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3181,7 +3199,7 @@
         <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3189,7 +3207,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3212,16 +3230,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3271,7 +3289,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3280,13 +3298,13 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3294,7 +3312,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3320,10 +3338,10 @@
         <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3374,7 +3392,7 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>39</v>
@@ -3389,7 +3407,7 @@
         <v>41</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3397,7 +3415,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3426,7 +3444,7 @@
         <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>96</v>
@@ -3479,7 +3497,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3494,7 +3512,7 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3502,11 +3520,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3528,10 +3546,10 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>96</v>
@@ -3586,7 +3604,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3609,7 +3627,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3632,19 +3650,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3669,13 +3687,13 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
@@ -3693,7 +3711,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3708,7 +3726,7 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -3716,7 +3734,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3739,71 +3757,71 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s" s="2">
+        <v>225</v>
+      </c>
+      <c r="Q27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="M27" t="s" s="2">
-        <v>220</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>221</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P27" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>216</v>
-      </c>
       <c r="AF27" t="s" s="2">
         <v>39</v>
       </c>
@@ -3811,13 +3829,13 @@
         <v>47</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3825,7 +3843,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3848,17 +3866,17 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -3907,7 +3925,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3922,7 +3940,7 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -3930,7 +3948,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3953,13 +3971,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4010,7 +4028,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>47</v>
@@ -4025,7 +4043,7 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4033,7 +4051,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4056,19 +4074,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4096,10 +4114,10 @@
         <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
@@ -4117,7 +4135,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4126,13 +4144,13 @@
         <v>47</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
+++ b/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="245">
   <si>
     <t>Path</t>
   </si>
@@ -403,9 +403,6 @@
   </si>
   <si>
     <t>Lists are used in various ways, and it must be known in what way it is safe to use them.</t>
-  </si>
-  <si>
-    <t>working</t>
   </si>
   <si>
     <t>The processing mode that applies to this list.</t>
@@ -595,6 +592,7 @@
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
   &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/list-order"/&gt;
     &lt;code value="priority"/&gt;
   &lt;/coding&gt;
 &lt;/valueCodeableConcept&gt;</t>
@@ -757,7 +755,7 @@
     <t>List.entry.item</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalHealthGoal|http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-PersonalInterventionPreference)
 </t>
   </si>
   <si>
@@ -1622,7 +1620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1632,13 +1630,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>41</v>
@@ -2299,7 +2297,7 @@
         <v>41</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>41</v>
@@ -2317,10 +2315,10 @@
         <v>114</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="Y13" t="s" s="2">
-        <v>126</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>41</v>
@@ -2353,15 +2351,15 @@
         <v>59</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>127</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>128</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2387,14 +2385,14 @@
         <v>49</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>130</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>131</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="O14" t="s" s="2">
         <v>41</v>
@@ -2407,7 +2405,7 @@
         <v>41</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="T14" t="s" s="2">
         <v>41</v>
@@ -2443,7 +2441,7 @@
         <v>41</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>39</v>
@@ -2458,7 +2456,7 @@
         <v>59</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>41</v>
@@ -2466,7 +2464,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2489,19 +2487,19 @@
         <v>48</v>
       </c>
       <c r="J15" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="K15" t="s" s="2">
         <v>136</v>
       </c>
-      <c r="K15" t="s" s="2">
+      <c r="L15" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>41</v>
@@ -2511,29 +2509,29 @@
         <v>41</v>
       </c>
       <c r="R15" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W15" t="s" s="2">
         <v>141</v>
       </c>
-      <c r="S15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W15" t="s" s="2">
+      <c r="X15" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="X15" t="s" s="2">
+      <c r="Y15" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="Y15" t="s" s="2">
-        <v>144</v>
-      </c>
       <c r="Z15" t="s" s="2">
         <v>41</v>
       </c>
@@ -2550,7 +2548,7 @@
         <v>41</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>39</v>
@@ -2565,15 +2563,15 @@
         <v>59</v>
       </c>
       <c r="AJ15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AK15" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="AK15" t="s" s="2">
-        <v>146</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2596,19 +2594,19 @@
         <v>48</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>148</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>151</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>152</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>41</v>
@@ -2657,7 +2655,7 @@
         <v>41</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>39</v>
@@ -2672,15 +2670,15 @@
         <v>59</v>
       </c>
       <c r="AJ16" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="AK16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>154</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2703,13 +2701,13 @@
         <v>41</v>
       </c>
       <c r="J17" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s" s="2">
         <v>156</v>
       </c>
-      <c r="K17" t="s" s="2">
+      <c r="L17" t="s" s="2">
         <v>157</v>
-      </c>
-      <c r="L17" t="s" s="2">
-        <v>158</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2760,7 +2758,7 @@
         <v>41</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>39</v>
@@ -2775,15 +2773,15 @@
         <v>59</v>
       </c>
       <c r="AJ17" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>160</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2806,19 +2804,19 @@
         <v>48</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="K18" t="s" s="2">
+      <c r="L18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="O18" t="s" s="2">
         <v>41</v>
@@ -2867,7 +2865,7 @@
         <v>41</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>39</v>
@@ -2882,19 +2880,19 @@
         <v>59</v>
       </c>
       <c r="AJ18" t="s" s="2">
+        <v>166</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -2913,19 +2911,19 @@
         <v>48</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>170</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>171</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="M19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="O19" t="s" s="2">
         <v>41</v>
@@ -2974,7 +2972,7 @@
         <v>41</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>39</v>
@@ -2989,15 +2987,15 @@
         <v>59</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3020,19 +3018,19 @@
         <v>41</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>179</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="M20" t="s" s="2">
+      <c r="N20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="O20" t="s" s="2">
         <v>41</v>
@@ -3042,7 +3040,7 @@
         <v>41</v>
       </c>
       <c r="R20" t="s" s="2">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="S20" t="s" s="2">
         <v>41</v>
@@ -3060,11 +3058,11 @@
         <v>71</v>
       </c>
       <c r="X20" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="Y20" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>185</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>41</v>
       </c>
@@ -3081,7 +3079,7 @@
         <v>41</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>39</v>
@@ -3096,7 +3094,7 @@
         <v>59</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>41</v>
@@ -3104,7 +3102,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3127,13 +3125,13 @@
         <v>41</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="K21" t="s" s="2">
         <v>188</v>
       </c>
-      <c r="K21" t="s" s="2">
+      <c r="L21" t="s" s="2">
         <v>189</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>190</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3184,7 +3182,7 @@
         <v>41</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>39</v>
@@ -3199,7 +3197,7 @@
         <v>59</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>41</v>
@@ -3207,7 +3205,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3230,16 +3228,16 @@
         <v>41</v>
       </c>
       <c r="J22" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="K22" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="K22" t="s" s="2">
+      <c r="L22" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -3289,7 +3287,7 @@
         <v>41</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>39</v>
@@ -3298,13 +3296,13 @@
         <v>40</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>41</v>
@@ -3312,7 +3310,7 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3338,10 +3336,10 @@
         <v>49</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="L23" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3392,22 +3390,22 @@
         <v>41</v>
       </c>
       <c r="AE23" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="AF23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="AF23" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>41</v>
@@ -3415,7 +3413,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -3444,7 +3442,7 @@
         <v>94</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>96</v>
@@ -3497,7 +3495,7 @@
         <v>41</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>39</v>
@@ -3512,7 +3510,7 @@
         <v>98</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>41</v>
@@ -3520,11 +3518,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -3546,10 +3544,10 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>209</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>96</v>
@@ -3604,7 +3602,7 @@
         <v>41</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>39</v>
@@ -3627,7 +3625,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -3650,19 +3648,19 @@
         <v>41</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="O26" t="s" s="2">
         <v>41</v>
@@ -3687,14 +3685,14 @@
         <v>41</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="Y26" t="s" s="2">
-        <v>218</v>
-      </c>
       <c r="Z26" t="s" s="2">
         <v>41</v>
       </c>
@@ -3711,7 +3709,7 @@
         <v>41</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>39</v>
@@ -3726,7 +3724,7 @@
         <v>59</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>41</v>
@@ -3734,7 +3732,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -3757,85 +3755,85 @@
         <v>41</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>223</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="P27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="O27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="P27" t="s" s="2">
+      <c r="Q27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AG27" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="AH27" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="Q27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="R27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>41</v>
@@ -3843,7 +3841,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -3866,17 +3864,17 @@
         <v>41</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>41</v>
@@ -3925,7 +3923,7 @@
         <v>41</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>39</v>
@@ -3940,7 +3938,7 @@
         <v>59</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AK28" t="s" s="2">
         <v>41</v>
@@ -3948,7 +3946,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -3971,13 +3969,13 @@
         <v>41</v>
       </c>
       <c r="J29" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="K29" t="s" s="2">
+      <c r="L29" t="s" s="2">
         <v>235</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>236</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4028,7 +4026,7 @@
         <v>41</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>47</v>
@@ -4043,7 +4041,7 @@
         <v>59</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>41</v>
@@ -4051,7 +4049,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4074,19 +4072,19 @@
         <v>41</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>242</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>41</v>
@@ -4114,11 +4112,11 @@
         <v>71</v>
       </c>
       <c r="X30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="Y30" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="Y30" t="s" s="2">
-        <v>244</v>
-      </c>
       <c r="Z30" t="s" s="2">
         <v>41</v>
       </c>
@@ -4135,7 +4133,7 @@
         <v>41</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>39</v>
@@ -4144,13 +4142,13 @@
         <v>47</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>59</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
+++ b/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
@@ -1620,7 +1620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1630,13 +1630,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
+++ b/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
@@ -1620,7 +1620,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>75</v>
       </c>
@@ -1630,13 +1630,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>47</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
+++ b/output/StructureDefinition-PADI-PersonalPrioritiesOrganizer.xlsx
@@ -947,43 +947,43 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="26.234375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="26.0703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="51.421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="51.1328125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="83.62109375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="43.72265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="83.33984375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="44.7578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="177.28125" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="177.52734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
